--- a/biology/Botanique/Hypoestes/Hypoestes.xlsx
+++ b/biology/Botanique/Hypoestes/Hypoestes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypoestes est un genre de plantes à fleurs de la famille des Acanthaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hypoestes vient du préfixe grec υπο / hypo, dessous, et de εστια / estia, maison, en référence à la manière dont les fleurs sont cachées sous les bractées[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypoestes vient du préfixe grec υπο / hypo, dessous, et de εστια / estia, maison, en référence à la manière dont les fleurs sont cachées sous les bractées.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (7 janvier 2018)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (7 janvier 2018) :
 Hypoestes acuminata Baker
 Hypoestes aldabrensis Baker
 Hypoestes andamanensis Thoth.
@@ -682,19 +698,19 @@
 Hypoestes vidalii C. B. Cl.
 Hypoestes viguieri Benoist
 Hypoestes warpurioides Benoist
-Selon GRIN            (7 janvier 2018)[3] :
+Selon GRIN            (7 janvier 2018) :
 Hypoestes maculosa Nees
 Hypoestes phyllostachya Baker
-Selon ITIS      (7 janvier 2018)[4] :
+Selon ITIS      (7 janvier 2018) :
 Hypoestes phyllostachya Baker
-Selon NCBI  (7 janvier 2018)[5] :
+Selon NCBI  (7 janvier 2018) :
 Hypoestes aristata
 Hypoestes floribunda
 Hypoestes forskaolii
 Hypoestes phyllostachya
 Hypoestes taeniata
 Hypoestes triflora
-Selon The Plant List            (7 janvier 2018)[6] :
+Selon The Plant List            (7 janvier 2018) :
 Hypoestes acuminata Baker
 Hypoestes angusta Benoist
 Hypoestes angustilabiata Benoist
@@ -799,7 +815,7 @@
 Hypoestes verticillaris (L.f.) Sol. ex Roem. &amp; Schult.
 Hypoestes viguieri Benoist
 Hypoestes warpurioides Benoist
-Selon Tropicos                                           (7 janvier 2018)[7] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (7 janvier 2018) (Attention liste brute contenant possiblement des synonymes) :
 Hypoestes acuminata Baker
 Hypoestes addisoniense Elmer
 Hypoestes adoensis Hochst.
